--- a/data/fig4_data.xlsx
+++ b/data/fig4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FC5405-240D-5B46-822D-B193C988F178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C07A70C-FDFA-654F-9035-FD56806972B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32440" yWindow="5640" windowWidth="28040" windowHeight="17440" xr2:uid="{60103729-BC85-9D45-8DAA-48B50DDB590B}"/>
+    <workbookView xWindow="26220" yWindow="2360" windowWidth="28040" windowHeight="17440" xr2:uid="{60103729-BC85-9D45-8DAA-48B50DDB590B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
